--- a/Assignment 1/Exercise A.xlsx
+++ b/Assignment 1/Exercise A.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr date1904="1" checkCompatibility="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raeedh\school\COMPENG4DM4\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BBF8AED2-9CD5-4CFC-B899-4D93B7AE6409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D772497-457B-4F7B-9B23-68D0C586AA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="33">
   <si>
     <t>4DM4 Assignment #1, Timing for Basic RISC 7-stage  pipeline</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>stall</t>
-  </si>
-  <si>
-    <t>SW 0(R2),R0</t>
   </si>
   <si>
     <t>MEM2*</t>
@@ -128,20 +125,29 @@
     <t>EX*</t>
   </si>
   <si>
-    <t>*ID</t>
-  </si>
-  <si>
     <t>BRANCH TARGET</t>
   </si>
   <si>
     <t>*forward R0 (EX* to *ID) in cc4</t>
   </si>
+  <si>
+    <t>ADD R3,R0,R2</t>
+  </si>
+  <si>
+    <t>*ID**</t>
+  </si>
+  <si>
+    <t>**IF1</t>
+  </si>
+  <si>
+    <t>**forward R0 (ID** to **IF) in cc5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -185,6 +191,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -276,11 +289,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -306,9 +332,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,14 +741,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:AF41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -932,7 +959,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>10</v>
@@ -941,7 +968,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -965,7 +992,7 @@
     </row>
     <row r="7" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
@@ -984,7 +1011,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>8</v>
@@ -1018,7 +1045,7 @@
     </row>
     <row r="8" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1071,7 +1098,7 @@
     </row>
     <row r="9" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1122,7 +1149,7 @@
     </row>
     <row r="10" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1722,14 +1749,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:AF41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1922,7 +1949,7 @@
     </row>
     <row r="6" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>4</v>
@@ -1931,7 +1958,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>7</v>
@@ -1947,7 +1974,7 @@
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -1973,7 +2000,7 @@
     </row>
     <row r="7" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
@@ -2022,7 +2049,7 @@
     </row>
     <row r="8" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -2071,13 +2098,13 @@
     </row>
     <row r="9" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="18"/>
       <c r="F9" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>5</v>
@@ -2702,14 +2729,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:AF41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2902,7 +2929,7 @@
     </row>
     <row r="6" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>4</v>
@@ -2913,8 +2940,8 @@
       <c r="E6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>27</v>
+      <c r="F6" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>8</v>
@@ -2925,14 +2952,11 @@
       <c r="I6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9" t="s">
-        <v>30</v>
+      <c r="J6" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="N6" s="21"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
@@ -2953,7 +2977,7 @@
     </row>
     <row r="7" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
@@ -2962,13 +2986,13 @@
       <c r="E7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="9" t="s">
@@ -2980,7 +3004,9 @@
       <c r="K7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="9"/>
+      <c r="L7" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -3004,20 +3030,20 @@
     </row>
     <row r="8" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="15" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="9" t="s">
@@ -3055,18 +3081,18 @@
     </row>
     <row r="9" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="9" t="s">
@@ -3105,19 +3131,35 @@
       <c r="AF9" s="9"/>
     </row>
     <row r="10" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="9"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="O10" s="9"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="9"/>
